--- a/LNU Medelvärden och n per SSYK för harmonisering.xlsx
+++ b/LNU Medelvärden och n per SSYK för harmonisering.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>z670_mean</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>z616_count</t>
-  </si>
-  <si>
-    <t>z624_mean</t>
-  </si>
-  <si>
-    <t>z624_count</t>
   </si>
   <si>
     <t>z647_mean</t>
@@ -500,15 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -630,14 +624,8 @@
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:41">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -696,79 +684,73 @@
         <v>3</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V2">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="W2">
         <v>3</v>
       </c>
       <c r="X2">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="Y2">
         <v>3</v>
       </c>
       <c r="Z2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <v>3</v>
       </c>
       <c r="AB2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC2">
         <v>3</v>
       </c>
       <c r="AD2">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AE2">
         <v>3</v>
       </c>
       <c r="AF2">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AG2">
         <v>3</v>
       </c>
       <c r="AH2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AI2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ2">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AK2">
         <v>2</v>
       </c>
       <c r="AL2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="AM2">
+        <v>3</v>
+      </c>
+      <c r="AN2">
+        <v>50.5</v>
+      </c>
+      <c r="AO2">
         <v>2</v>
       </c>
-      <c r="AN2">
-        <v>1979</v>
-      </c>
-      <c r="AO2">
-        <v>3</v>
-      </c>
-      <c r="AP2">
-        <v>50.5</v>
-      </c>
-      <c r="AQ2">
-        <v>2</v>
-      </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:41">
       <c r="A3" s="1">
         <v>11</v>
       </c>
@@ -827,19 +809,19 @@
         <v>11</v>
       </c>
       <c r="T3">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="U3">
         <v>11</v>
       </c>
       <c r="V3">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
         <v>11</v>
       </c>
       <c r="X3">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="Y3">
         <v>11</v>
@@ -851,55 +833,49 @@
         <v>11</v>
       </c>
       <c r="AB3">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="AC3">
         <v>11</v>
       </c>
       <c r="AD3">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="AE3">
         <v>11</v>
       </c>
       <c r="AF3">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="AG3">
         <v>11</v>
       </c>
       <c r="AH3">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="AI3">
         <v>11</v>
       </c>
       <c r="AJ3">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AK3">
         <v>11</v>
       </c>
       <c r="AL3">
-        <v>4.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM3">
         <v>11</v>
       </c>
       <c r="AN3">
-        <v>1997.5</v>
+        <v>17.4</v>
       </c>
       <c r="AO3">
         <v>11</v>
       </c>
-      <c r="AP3">
-        <v>17.4</v>
-      </c>
-      <c r="AQ3">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:41">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -958,79 +934,73 @@
         <v>123</v>
       </c>
       <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>122</v>
+      </c>
+      <c r="V4">
+        <v>1.5</v>
+      </c>
+      <c r="W4">
+        <v>123</v>
+      </c>
+      <c r="X4">
         <v>1.9</v>
-      </c>
-      <c r="U4">
-        <v>123</v>
-      </c>
-      <c r="V4">
-        <v>6</v>
-      </c>
-      <c r="W4">
-        <v>122</v>
-      </c>
-      <c r="X4">
-        <v>1.5</v>
       </c>
       <c r="Y4">
         <v>123</v>
       </c>
       <c r="Z4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AA4">
         <v>123</v>
       </c>
       <c r="AB4">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="AC4">
         <v>123</v>
       </c>
       <c r="AD4">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="AE4">
         <v>123</v>
       </c>
       <c r="AF4">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="AG4">
         <v>123</v>
       </c>
       <c r="AH4">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AI4">
         <v>123</v>
       </c>
       <c r="AJ4">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="AK4">
         <v>123</v>
       </c>
       <c r="AL4">
-        <v>5.2</v>
+        <v>13</v>
       </c>
       <c r="AM4">
         <v>123</v>
       </c>
       <c r="AN4">
-        <v>1998</v>
+        <v>28.5</v>
       </c>
       <c r="AO4">
         <v>123</v>
       </c>
-      <c r="AP4">
-        <v>28.5</v>
-      </c>
-      <c r="AQ4">
-        <v>123</v>
-      </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:41">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -1089,79 +1059,73 @@
         <v>22</v>
       </c>
       <c r="T5">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="U5">
         <v>22</v>
       </c>
       <c r="V5">
-        <v>4.9</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>22</v>
       </c>
       <c r="X5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>22</v>
       </c>
       <c r="Z5">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AA5">
         <v>22</v>
       </c>
       <c r="AB5">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="AC5">
         <v>22</v>
       </c>
       <c r="AD5">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AE5">
         <v>22</v>
       </c>
       <c r="AF5">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AG5">
         <v>22</v>
       </c>
       <c r="AH5">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AI5">
         <v>22</v>
       </c>
       <c r="AJ5">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="AK5">
         <v>22</v>
       </c>
       <c r="AL5">
-        <v>1.7</v>
+        <v>5.4</v>
       </c>
       <c r="AM5">
         <v>22</v>
       </c>
       <c r="AN5">
-        <v>2005.6</v>
+        <v>5.4</v>
       </c>
       <c r="AO5">
         <v>22</v>
       </c>
-      <c r="AP5">
-        <v>5.4</v>
-      </c>
-      <c r="AQ5">
-        <v>22</v>
-      </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:41">
       <c r="A6" s="1">
         <v>21</v>
       </c>
@@ -1220,43 +1184,43 @@
         <v>166</v>
       </c>
       <c r="T6">
+        <v>5.7</v>
+      </c>
+      <c r="U6">
+        <v>164</v>
+      </c>
+      <c r="V6">
+        <v>1.3</v>
+      </c>
+      <c r="W6">
+        <v>166</v>
+      </c>
+      <c r="X6">
         <v>1.9</v>
-      </c>
-      <c r="U6">
-        <v>166</v>
-      </c>
-      <c r="V6">
-        <v>5.7</v>
-      </c>
-      <c r="W6">
-        <v>164</v>
-      </c>
-      <c r="X6">
-        <v>1.3</v>
       </c>
       <c r="Y6">
         <v>166</v>
       </c>
       <c r="Z6">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AA6">
         <v>166</v>
       </c>
       <c r="AB6">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="AC6">
+        <v>165</v>
+      </c>
+      <c r="AD6">
+        <v>4.2</v>
+      </c>
+      <c r="AE6">
         <v>166</v>
       </c>
-      <c r="AD6">
-        <v>3.7</v>
-      </c>
-      <c r="AE6">
-        <v>165</v>
-      </c>
       <c r="AF6">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="AG6">
         <v>166</v>
@@ -1268,31 +1232,25 @@
         <v>166</v>
       </c>
       <c r="AJ6">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="AK6">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL6">
-        <v>5.2</v>
+        <v>10.9</v>
       </c>
       <c r="AM6">
         <v>165</v>
       </c>
       <c r="AN6">
-        <v>2000.1</v>
+        <v>11.1</v>
       </c>
       <c r="AO6">
-        <v>165</v>
-      </c>
-      <c r="AP6">
-        <v>11.1</v>
-      </c>
-      <c r="AQ6">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:41">
       <c r="A7" s="1">
         <v>22</v>
       </c>
@@ -1351,79 +1309,73 @@
         <v>63</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="U7">
         <v>63</v>
       </c>
       <c r="V7">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
         <v>63</v>
       </c>
       <c r="X7">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Y7">
         <v>63</v>
       </c>
       <c r="Z7">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AA7">
         <v>63</v>
       </c>
       <c r="AB7">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC7">
         <v>63</v>
       </c>
       <c r="AD7">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="AE7">
         <v>63</v>
       </c>
       <c r="AF7">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AG7">
         <v>63</v>
       </c>
       <c r="AH7">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AI7">
         <v>63</v>
       </c>
       <c r="AJ7">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK7">
         <v>63</v>
       </c>
       <c r="AL7">
-        <v>8.800000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="AM7">
         <v>63</v>
       </c>
       <c r="AN7">
-        <v>1998.6</v>
+        <v>2.4</v>
       </c>
       <c r="AO7">
         <v>63</v>
       </c>
-      <c r="AP7">
-        <v>2.4</v>
-      </c>
-      <c r="AQ7">
-        <v>63</v>
-      </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:41">
       <c r="A8" s="1">
         <v>23</v>
       </c>
@@ -1482,43 +1434,43 @@
         <v>170</v>
       </c>
       <c r="T8">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="U8">
+        <v>163</v>
+      </c>
+      <c r="V8">
+        <v>1.7</v>
+      </c>
+      <c r="W8">
+        <v>170</v>
+      </c>
+      <c r="X8">
+        <v>1.8</v>
+      </c>
+      <c r="Y8">
         <v>169</v>
       </c>
-      <c r="V8">
-        <v>5.9</v>
-      </c>
-      <c r="W8">
-        <v>163</v>
-      </c>
-      <c r="X8">
-        <v>1.7</v>
-      </c>
-      <c r="Y8">
-        <v>170</v>
-      </c>
       <c r="Z8">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AA8">
         <v>169</v>
       </c>
       <c r="AB8">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="AC8">
         <v>169</v>
       </c>
       <c r="AD8">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="AE8">
         <v>169</v>
       </c>
       <c r="AF8">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="AG8">
         <v>169</v>
@@ -1530,31 +1482,25 @@
         <v>169</v>
       </c>
       <c r="AJ8">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="AK8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AL8">
-        <v>6.6</v>
+        <v>13.8</v>
       </c>
       <c r="AM8">
+        <v>170</v>
+      </c>
+      <c r="AN8">
+        <v>15.8</v>
+      </c>
+      <c r="AO8">
         <v>168</v>
       </c>
-      <c r="AN8">
-        <v>1997.2</v>
-      </c>
-      <c r="AO8">
-        <v>170</v>
-      </c>
-      <c r="AP8">
-        <v>15.8</v>
-      </c>
-      <c r="AQ8">
-        <v>168</v>
-      </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:41">
       <c r="A9" s="1">
         <v>24</v>
       </c>
@@ -1613,43 +1559,43 @@
         <v>233</v>
       </c>
       <c r="T9">
+        <v>5.4</v>
+      </c>
+      <c r="U9">
+        <v>229</v>
+      </c>
+      <c r="V9">
+        <v>1.4</v>
+      </c>
+      <c r="W9">
+        <v>233</v>
+      </c>
+      <c r="X9">
         <v>1.9</v>
-      </c>
-      <c r="U9">
-        <v>233</v>
-      </c>
-      <c r="V9">
-        <v>5.4</v>
-      </c>
-      <c r="W9">
-        <v>229</v>
-      </c>
-      <c r="X9">
-        <v>1.4</v>
       </c>
       <c r="Y9">
         <v>233</v>
       </c>
       <c r="Z9">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AA9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB9">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="AC9">
         <v>232</v>
       </c>
       <c r="AD9">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AE9">
         <v>232</v>
       </c>
       <c r="AF9">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AG9">
         <v>232</v>
@@ -1661,31 +1607,25 @@
         <v>232</v>
       </c>
       <c r="AJ9">
-        <v>3.8</v>
+        <v>5.3</v>
       </c>
       <c r="AK9">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AL9">
-        <v>5.3</v>
+        <v>10.3</v>
       </c>
       <c r="AM9">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AN9">
-        <v>2000.7</v>
+        <v>6.5</v>
       </c>
       <c r="AO9">
         <v>233</v>
       </c>
-      <c r="AP9">
-        <v>6.5</v>
-      </c>
-      <c r="AQ9">
-        <v>233</v>
-      </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:41">
       <c r="A10" s="1">
         <v>31</v>
       </c>
@@ -1744,79 +1684,73 @@
         <v>193</v>
       </c>
       <c r="T10">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="U10">
+        <v>191</v>
+      </c>
+      <c r="V10">
+        <v>1.5</v>
+      </c>
+      <c r="W10">
         <v>193</v>
       </c>
-      <c r="V10">
-        <v>5.7</v>
-      </c>
-      <c r="W10">
-        <v>191</v>
-      </c>
       <c r="X10">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="Y10">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z10">
         <v>1.8</v>
       </c>
       <c r="AA10">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB10">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="AC10">
         <v>193</v>
       </c>
       <c r="AD10">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AE10">
         <v>193</v>
       </c>
       <c r="AF10">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AG10">
         <v>193</v>
       </c>
       <c r="AH10">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AI10">
         <v>193</v>
       </c>
       <c r="AJ10">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AK10">
+        <v>191</v>
+      </c>
+      <c r="AL10">
+        <v>11.9</v>
+      </c>
+      <c r="AM10">
         <v>193</v>
       </c>
-      <c r="AL10">
-        <v>4.3</v>
-      </c>
-      <c r="AM10">
-        <v>191</v>
-      </c>
       <c r="AN10">
-        <v>1999.1</v>
+        <v>8</v>
       </c>
       <c r="AO10">
         <v>193</v>
       </c>
-      <c r="AP10">
-        <v>8</v>
-      </c>
-      <c r="AQ10">
-        <v>193</v>
-      </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:41">
       <c r="A11" s="1">
         <v>32</v>
       </c>
@@ -1875,19 +1809,19 @@
         <v>81</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="U11">
+        <v>79</v>
+      </c>
+      <c r="V11">
+        <v>1.8</v>
+      </c>
+      <c r="W11">
         <v>80</v>
       </c>
-      <c r="V11">
-        <v>5.2</v>
-      </c>
-      <c r="W11">
-        <v>79</v>
-      </c>
       <c r="X11">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Y11">
         <v>80</v>
@@ -1899,55 +1833,49 @@
         <v>80</v>
       </c>
       <c r="AB11">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC11">
         <v>80</v>
       </c>
       <c r="AD11">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AE11">
         <v>80</v>
       </c>
       <c r="AF11">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AG11">
         <v>80</v>
       </c>
       <c r="AH11">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="AI11">
         <v>80</v>
       </c>
       <c r="AJ11">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="AK11">
         <v>80</v>
       </c>
       <c r="AL11">
-        <v>5.3</v>
+        <v>10.7</v>
       </c>
       <c r="AM11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AN11">
-        <v>2000.3</v>
+        <v>3.9</v>
       </c>
       <c r="AO11">
-        <v>79</v>
-      </c>
-      <c r="AP11">
-        <v>3.9</v>
-      </c>
-      <c r="AQ11">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:41">
       <c r="A12" s="1">
         <v>33</v>
       </c>
@@ -2006,79 +1934,73 @@
         <v>83</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="U12">
+        <v>78</v>
+      </c>
+      <c r="V12">
+        <v>1.9</v>
+      </c>
+      <c r="W12">
         <v>83</v>
       </c>
-      <c r="V12">
-        <v>4.9</v>
-      </c>
-      <c r="W12">
-        <v>78</v>
-      </c>
       <c r="X12">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="Y12">
         <v>83</v>
       </c>
       <c r="Z12">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AA12">
         <v>83</v>
       </c>
       <c r="AB12">
-        <v>1.3</v>
+        <v>3.7</v>
       </c>
       <c r="AC12">
         <v>83</v>
       </c>
       <c r="AD12">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AE12">
         <v>83</v>
       </c>
       <c r="AF12">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="AG12">
         <v>83</v>
       </c>
       <c r="AH12">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AI12">
         <v>83</v>
       </c>
       <c r="AJ12">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="AK12">
         <v>83</v>
       </c>
       <c r="AL12">
-        <v>4.7</v>
+        <v>12.5</v>
       </c>
       <c r="AM12">
         <v>83</v>
       </c>
       <c r="AN12">
-        <v>1998.5</v>
+        <v>1.1</v>
       </c>
       <c r="AO12">
         <v>83</v>
       </c>
-      <c r="AP12">
-        <v>1.1</v>
-      </c>
-      <c r="AQ12">
-        <v>83</v>
-      </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:41">
       <c r="A13" s="1">
         <v>34</v>
       </c>
@@ -2137,79 +2059,73 @@
         <v>289</v>
       </c>
       <c r="T13">
+        <v>5.2</v>
+      </c>
+      <c r="U13">
+        <v>286</v>
+      </c>
+      <c r="V13">
+        <v>1.6</v>
+      </c>
+      <c r="W13">
+        <v>288</v>
+      </c>
+      <c r="X13">
         <v>1.8</v>
-      </c>
-      <c r="U13">
-        <v>287</v>
-      </c>
-      <c r="V13">
-        <v>5.2</v>
-      </c>
-      <c r="W13">
-        <v>286</v>
-      </c>
-      <c r="X13">
-        <v>1.6</v>
       </c>
       <c r="Y13">
         <v>288</v>
       </c>
       <c r="Z13">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AA13">
         <v>288</v>
       </c>
       <c r="AB13">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="AC13">
         <v>288</v>
       </c>
       <c r="AD13">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AE13">
         <v>288</v>
       </c>
       <c r="AF13">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AG13">
         <v>288</v>
       </c>
       <c r="AH13">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AI13">
         <v>288</v>
       </c>
       <c r="AJ13">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AK13">
+        <v>286</v>
+      </c>
+      <c r="AL13">
+        <v>10.5</v>
+      </c>
+      <c r="AM13">
+        <v>287</v>
+      </c>
+      <c r="AN13">
+        <v>9.5</v>
+      </c>
+      <c r="AO13">
         <v>288</v>
       </c>
-      <c r="AL13">
-        <v>3.6</v>
-      </c>
-      <c r="AM13">
-        <v>286</v>
-      </c>
-      <c r="AN13">
-        <v>2000.5</v>
-      </c>
-      <c r="AO13">
-        <v>287</v>
-      </c>
-      <c r="AP13">
-        <v>9.5</v>
-      </c>
-      <c r="AQ13">
-        <v>288</v>
-      </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:41">
       <c r="A14" s="1">
         <v>41</v>
       </c>
@@ -2268,13 +2184,13 @@
         <v>155</v>
       </c>
       <c r="T14">
+        <v>4.4</v>
+      </c>
+      <c r="U14">
+        <v>156</v>
+      </c>
+      <c r="V14">
         <v>1.6</v>
-      </c>
-      <c r="U14">
-        <v>155</v>
-      </c>
-      <c r="V14">
-        <v>4.4</v>
       </c>
       <c r="W14">
         <v>156</v>
@@ -2286,61 +2202,55 @@
         <v>156</v>
       </c>
       <c r="Z14">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AA14">
+        <v>155</v>
+      </c>
+      <c r="AB14">
+        <v>3.3</v>
+      </c>
+      <c r="AC14">
         <v>156</v>
       </c>
-      <c r="AB14">
-        <v>1.7</v>
-      </c>
-      <c r="AC14">
-        <v>155</v>
-      </c>
       <c r="AD14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AE14">
         <v>156</v>
       </c>
       <c r="AF14">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AG14">
         <v>156</v>
       </c>
       <c r="AH14">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AI14">
         <v>156</v>
       </c>
       <c r="AJ14">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="AK14">
+        <v>152</v>
+      </c>
+      <c r="AL14">
+        <v>12.1</v>
+      </c>
+      <c r="AM14">
+        <v>155</v>
+      </c>
+      <c r="AN14">
+        <v>2.3</v>
+      </c>
+      <c r="AO14">
         <v>156</v>
       </c>
-      <c r="AL14">
-        <v>2.2</v>
-      </c>
-      <c r="AM14">
-        <v>152</v>
-      </c>
-      <c r="AN14">
-        <v>1998.9</v>
-      </c>
-      <c r="AO14">
-        <v>155</v>
-      </c>
-      <c r="AP14">
-        <v>2.3</v>
-      </c>
-      <c r="AQ14">
-        <v>156</v>
-      </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:41">
       <c r="A15" s="1">
         <v>42</v>
       </c>
@@ -2399,79 +2309,73 @@
         <v>40</v>
       </c>
       <c r="T15">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="U15">
         <v>40</v>
       </c>
       <c r="V15">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
         <v>40</v>
       </c>
       <c r="X15">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y15">
         <v>40</v>
       </c>
       <c r="Z15">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AA15">
         <v>40</v>
       </c>
       <c r="AB15">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="AC15">
         <v>40</v>
       </c>
       <c r="AD15">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AE15">
         <v>40</v>
       </c>
       <c r="AF15">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG15">
         <v>40</v>
       </c>
       <c r="AH15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI15">
         <v>40</v>
       </c>
       <c r="AJ15">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="AK15">
         <v>40</v>
       </c>
       <c r="AL15">
-        <v>1.5</v>
+        <v>6.4</v>
       </c>
       <c r="AM15">
         <v>40</v>
       </c>
       <c r="AN15">
-        <v>2004.6</v>
+        <v>0.9</v>
       </c>
       <c r="AO15">
         <v>40</v>
       </c>
-      <c r="AP15">
-        <v>0.9</v>
-      </c>
-      <c r="AQ15">
-        <v>40</v>
-      </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:41">
       <c r="A16" s="1">
         <v>51</v>
       </c>
@@ -2530,79 +2434,73 @@
         <v>359</v>
       </c>
       <c r="T16">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="U16">
+        <v>348</v>
+      </c>
+      <c r="V16">
+        <v>1.9</v>
+      </c>
+      <c r="W16">
+        <v>359</v>
+      </c>
+      <c r="X16">
+        <v>1.3</v>
+      </c>
+      <c r="Y16">
+        <v>356</v>
+      </c>
+      <c r="Z16">
+        <v>1.5</v>
+      </c>
+      <c r="AA16">
         <v>358</v>
       </c>
-      <c r="V16">
-        <v>4</v>
-      </c>
-      <c r="W16">
-        <v>348</v>
-      </c>
-      <c r="X16">
-        <v>1.9</v>
-      </c>
-      <c r="Y16">
-        <v>359</v>
-      </c>
-      <c r="Z16">
-        <v>1.3</v>
-      </c>
-      <c r="AA16">
-        <v>356</v>
-      </c>
       <c r="AB16">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="AC16">
         <v>358</v>
       </c>
       <c r="AD16">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AE16">
         <v>358</v>
       </c>
       <c r="AF16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AG16">
+        <v>355</v>
+      </c>
+      <c r="AH16">
+        <v>4.1</v>
+      </c>
+      <c r="AI16">
         <v>358</v>
       </c>
-      <c r="AH16">
-        <v>3.4</v>
-      </c>
-      <c r="AI16">
-        <v>355</v>
-      </c>
       <c r="AJ16">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="AK16">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AL16">
-        <v>2.3</v>
+        <v>11.5</v>
       </c>
       <c r="AM16">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN16">
-        <v>1999.5</v>
+        <v>0.8</v>
       </c>
       <c r="AO16">
-        <v>354</v>
-      </c>
-      <c r="AP16">
-        <v>0.8</v>
-      </c>
-      <c r="AQ16">
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:41">
       <c r="A17" s="1">
         <v>52</v>
       </c>
@@ -2661,79 +2559,73 @@
         <v>99</v>
       </c>
       <c r="T17">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="U17">
         <v>99</v>
       </c>
       <c r="V17">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>99</v>
       </c>
       <c r="X17">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Y17">
         <v>99</v>
       </c>
       <c r="Z17">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AA17">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB17">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="AC17">
         <v>98</v>
       </c>
       <c r="AD17">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AE17">
         <v>98</v>
       </c>
       <c r="AF17">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AG17">
         <v>98</v>
       </c>
       <c r="AH17">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AI17">
         <v>98</v>
       </c>
       <c r="AJ17">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="AK17">
         <v>98</v>
       </c>
       <c r="AL17">
-        <v>0.8</v>
+        <v>7.9</v>
       </c>
       <c r="AM17">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AN17">
-        <v>2003.1</v>
+        <v>0.5</v>
       </c>
       <c r="AO17">
         <v>99</v>
       </c>
-      <c r="AP17">
-        <v>0.5</v>
-      </c>
-      <c r="AQ17">
-        <v>99</v>
-      </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:41">
       <c r="A18" s="1">
         <v>61</v>
       </c>
@@ -2792,19 +2684,19 @@
         <v>23</v>
       </c>
       <c r="T18">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="U18">
         <v>24</v>
       </c>
       <c r="V18">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="W18">
         <v>24</v>
       </c>
       <c r="X18">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Y18">
         <v>24</v>
@@ -2816,55 +2708,49 @@
         <v>24</v>
       </c>
       <c r="AB18">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="AC18">
         <v>24</v>
       </c>
       <c r="AD18">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AE18">
         <v>24</v>
       </c>
       <c r="AF18">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="AG18">
         <v>24</v>
       </c>
       <c r="AH18">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="AI18">
         <v>24</v>
       </c>
       <c r="AJ18">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="AK18">
+        <v>22</v>
+      </c>
+      <c r="AL18">
+        <v>10.5</v>
+      </c>
+      <c r="AM18">
         <v>24</v>
       </c>
-      <c r="AL18">
-        <v>1.4</v>
-      </c>
-      <c r="AM18">
-        <v>22</v>
-      </c>
       <c r="AN18">
-        <v>2000.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO18">
-        <v>24</v>
-      </c>
-      <c r="AP18">
-        <v>0.6</v>
-      </c>
-      <c r="AQ18">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:41">
       <c r="A19" s="1">
         <v>71</v>
       </c>
@@ -2923,79 +2809,73 @@
         <v>132</v>
       </c>
       <c r="T19">
+        <v>5.8</v>
+      </c>
+      <c r="U19">
+        <v>129</v>
+      </c>
+      <c r="V19">
+        <v>1.8</v>
+      </c>
+      <c r="W19">
+        <v>130</v>
+      </c>
+      <c r="X19">
         <v>1.7</v>
       </c>
-      <c r="U19">
-        <v>130</v>
-      </c>
-      <c r="V19">
-        <v>5.8</v>
-      </c>
-      <c r="W19">
+      <c r="Y19">
         <v>129</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>1.8</v>
-      </c>
-      <c r="Y19">
-        <v>130</v>
-      </c>
-      <c r="Z19">
-        <v>1.7</v>
       </c>
       <c r="AA19">
         <v>129</v>
       </c>
       <c r="AB19">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="AC19">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AD19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AE19">
         <v>130</v>
       </c>
       <c r="AF19">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AG19">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH19">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AI19">
         <v>129</v>
       </c>
       <c r="AJ19">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="AK19">
+        <v>130</v>
+      </c>
+      <c r="AL19">
+        <v>9.6</v>
+      </c>
+      <c r="AM19">
         <v>129</v>
       </c>
-      <c r="AL19">
-        <v>2.2</v>
-      </c>
-      <c r="AM19">
-        <v>130</v>
-      </c>
       <c r="AN19">
-        <v>2001.4</v>
+        <v>1.7</v>
       </c>
       <c r="AO19">
-        <v>129</v>
-      </c>
-      <c r="AP19">
-        <v>1.7</v>
-      </c>
-      <c r="AQ19">
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:41">
       <c r="A20" s="1">
         <v>72</v>
       </c>
@@ -3054,79 +2934,73 @@
         <v>75</v>
       </c>
       <c r="T20">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="U20">
+        <v>73</v>
+      </c>
+      <c r="V20">
+        <v>1.6</v>
+      </c>
+      <c r="W20">
         <v>75</v>
-      </c>
-      <c r="V20">
-        <v>5.7</v>
-      </c>
-      <c r="W20">
-        <v>73</v>
       </c>
       <c r="X20">
         <v>1.6</v>
       </c>
       <c r="Y20">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z20">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AA20">
         <v>74</v>
       </c>
       <c r="AB20">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="AC20">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD20">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AE20">
         <v>75</v>
       </c>
       <c r="AF20">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AG20">
         <v>75</v>
       </c>
       <c r="AH20">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="AI20">
         <v>75</v>
       </c>
       <c r="AJ20">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="AK20">
         <v>75</v>
       </c>
       <c r="AL20">
-        <v>2.4</v>
+        <v>12.8</v>
       </c>
       <c r="AM20">
         <v>75</v>
       </c>
       <c r="AN20">
-        <v>1998.2</v>
+        <v>1</v>
       </c>
       <c r="AO20">
         <v>75</v>
       </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-      <c r="AQ20">
-        <v>75</v>
-      </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:41">
       <c r="A21" s="1">
         <v>73</v>
       </c>
@@ -3185,37 +3059,37 @@
         <v>16</v>
       </c>
       <c r="T21">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="U21">
         <v>16</v>
       </c>
       <c r="V21">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="W21">
         <v>16</v>
       </c>
       <c r="X21">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="Y21">
         <v>16</v>
       </c>
       <c r="Z21">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AA21">
         <v>16</v>
       </c>
       <c r="AB21">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="AC21">
         <v>16</v>
       </c>
       <c r="AD21">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="AE21">
         <v>16</v>
@@ -3227,37 +3101,31 @@
         <v>16</v>
       </c>
       <c r="AH21">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AI21">
         <v>16</v>
       </c>
       <c r="AJ21">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="AK21">
         <v>16</v>
       </c>
       <c r="AL21">
-        <v>3.1</v>
+        <v>9.1</v>
       </c>
       <c r="AM21">
         <v>16</v>
       </c>
       <c r="AN21">
-        <v>2001.9</v>
+        <v>1.2</v>
       </c>
       <c r="AO21">
         <v>16</v>
       </c>
-      <c r="AP21">
-        <v>1.2</v>
-      </c>
-      <c r="AQ21">
-        <v>16</v>
-      </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:41">
       <c r="A22" s="1">
         <v>74</v>
       </c>
@@ -3316,79 +3184,73 @@
         <v>16</v>
       </c>
       <c r="T22">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="U22">
         <v>16</v>
       </c>
       <c r="V22">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
         <v>16</v>
       </c>
       <c r="X22">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="Y22">
         <v>16</v>
       </c>
       <c r="Z22">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AA22">
         <v>16</v>
       </c>
       <c r="AB22">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="AC22">
         <v>16</v>
       </c>
       <c r="AD22">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AE22">
+        <v>15</v>
+      </c>
+      <c r="AF22">
+        <v>3.1</v>
+      </c>
+      <c r="AG22">
         <v>16</v>
       </c>
-      <c r="AF22">
-        <v>3.7</v>
-      </c>
-      <c r="AG22">
-        <v>15</v>
-      </c>
       <c r="AH22">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="AI22">
         <v>16</v>
       </c>
       <c r="AJ22">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="AK22">
+        <v>15</v>
+      </c>
+      <c r="AL22">
+        <v>8.6</v>
+      </c>
+      <c r="AM22">
         <v>16</v>
       </c>
-      <c r="AL22">
-        <v>1.8</v>
-      </c>
-      <c r="AM22">
-        <v>15</v>
-      </c>
       <c r="AN22">
-        <v>2002.4</v>
+        <v>0.2</v>
       </c>
       <c r="AO22">
         <v>16</v>
       </c>
-      <c r="AP22">
-        <v>0.2</v>
-      </c>
-      <c r="AQ22">
-        <v>16</v>
-      </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:41">
       <c r="A23" s="1">
         <v>81</v>
       </c>
@@ -3447,79 +3309,73 @@
         <v>36</v>
       </c>
       <c r="T23">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="U23">
         <v>36</v>
       </c>
       <c r="V23">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
+        <v>35</v>
+      </c>
+      <c r="X23">
+        <v>1.3</v>
+      </c>
+      <c r="Y23">
         <v>36</v>
       </c>
-      <c r="X23">
-        <v>1.9</v>
-      </c>
-      <c r="Y23">
-        <v>35</v>
-      </c>
       <c r="Z23">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AA23">
         <v>36</v>
       </c>
       <c r="AB23">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="AC23">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD23">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AE23">
         <v>35</v>
       </c>
       <c r="AF23">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AG23">
         <v>35</v>
       </c>
       <c r="AH23">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AI23">
+        <v>34</v>
+      </c>
+      <c r="AJ23">
+        <v>1.4</v>
+      </c>
+      <c r="AK23">
         <v>35</v>
       </c>
-      <c r="AJ23">
-        <v>4</v>
-      </c>
-      <c r="AK23">
-        <v>34</v>
-      </c>
       <c r="AL23">
-        <v>1.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AN23">
-        <v>2001.8</v>
+        <v>0.6</v>
       </c>
       <c r="AO23">
         <v>36</v>
       </c>
-      <c r="AP23">
-        <v>0.6</v>
-      </c>
-      <c r="AQ23">
-        <v>36</v>
-      </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:41">
       <c r="A24" s="1">
         <v>82</v>
       </c>
@@ -3578,79 +3434,73 @@
         <v>103</v>
       </c>
       <c r="T24">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="U24">
         <v>103</v>
       </c>
       <c r="V24">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
         <v>103</v>
       </c>
       <c r="X24">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Y24">
         <v>103</v>
       </c>
       <c r="Z24">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AA24">
         <v>103</v>
       </c>
       <c r="AB24">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="AC24">
         <v>103</v>
       </c>
       <c r="AD24">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AE24">
         <v>103</v>
       </c>
       <c r="AF24">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AG24">
         <v>103</v>
       </c>
       <c r="AH24">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="AI24">
         <v>103</v>
       </c>
       <c r="AJ24">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="AK24">
+        <v>102</v>
+      </c>
+      <c r="AL24">
+        <v>13.3</v>
+      </c>
+      <c r="AM24">
         <v>103</v>
       </c>
-      <c r="AL24">
-        <v>1.5</v>
-      </c>
-      <c r="AM24">
-        <v>102</v>
-      </c>
       <c r="AN24">
-        <v>1997.7</v>
+        <v>1.1</v>
       </c>
       <c r="AO24">
         <v>103</v>
       </c>
-      <c r="AP24">
-        <v>1.1</v>
-      </c>
-      <c r="AQ24">
-        <v>103</v>
-      </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:41">
       <c r="A25" s="1">
         <v>83</v>
       </c>
@@ -3709,79 +3559,73 @@
         <v>91</v>
       </c>
       <c r="T25">
+        <v>4.5</v>
+      </c>
+      <c r="U25">
+        <v>89</v>
+      </c>
+      <c r="V25">
+        <v>1.7</v>
+      </c>
+      <c r="W25">
+        <v>91</v>
+      </c>
+      <c r="X25">
         <v>1.5</v>
-      </c>
-      <c r="U25">
-        <v>91</v>
-      </c>
-      <c r="V25">
-        <v>4.5</v>
-      </c>
-      <c r="W25">
-        <v>89</v>
-      </c>
-      <c r="X25">
-        <v>1.7</v>
       </c>
       <c r="Y25">
         <v>91</v>
       </c>
       <c r="Z25">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AA25">
         <v>91</v>
       </c>
       <c r="AB25">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="AC25">
         <v>91</v>
       </c>
       <c r="AD25">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AE25">
         <v>91</v>
       </c>
       <c r="AF25">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="AG25">
         <v>91</v>
       </c>
       <c r="AH25">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="AI25">
         <v>91</v>
       </c>
       <c r="AJ25">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="AK25">
+        <v>87</v>
+      </c>
+      <c r="AL25">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AM25">
+        <v>89</v>
+      </c>
+      <c r="AN25">
+        <v>1.7</v>
+      </c>
+      <c r="AO25">
         <v>91</v>
       </c>
-      <c r="AL25">
-        <v>1.1</v>
-      </c>
-      <c r="AM25">
-        <v>87</v>
-      </c>
-      <c r="AN25">
-        <v>2001.2</v>
-      </c>
-      <c r="AO25">
-        <v>89</v>
-      </c>
-      <c r="AP25">
-        <v>1.7</v>
-      </c>
-      <c r="AQ25">
-        <v>91</v>
-      </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:41">
       <c r="A26" s="1">
         <v>91</v>
       </c>
@@ -3840,79 +3684,73 @@
         <v>93</v>
       </c>
       <c r="T26">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="U26">
         <v>92</v>
       </c>
       <c r="V26">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
+        <v>93</v>
+      </c>
+      <c r="X26">
+        <v>1.4</v>
+      </c>
+      <c r="Y26">
         <v>92</v>
       </c>
-      <c r="X26">
-        <v>1.8</v>
-      </c>
-      <c r="Y26">
+      <c r="Z26">
+        <v>1.7</v>
+      </c>
+      <c r="AA26">
         <v>93</v>
       </c>
-      <c r="Z26">
-        <v>1.4</v>
-      </c>
-      <c r="AA26">
+      <c r="AB26">
+        <v>2.9</v>
+      </c>
+      <c r="AC26">
         <v>92</v>
       </c>
-      <c r="AB26">
-        <v>1.7</v>
-      </c>
-      <c r="AC26">
-        <v>93</v>
-      </c>
       <c r="AD26">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="AE26">
         <v>92</v>
       </c>
       <c r="AF26">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="AG26">
         <v>92</v>
       </c>
       <c r="AH26">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="AI26">
         <v>92</v>
       </c>
       <c r="AJ26">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="AK26">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AL26">
-        <v>0.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AM26">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AN26">
-        <v>2001.7</v>
+        <v>0.2</v>
       </c>
       <c r="AO26">
         <v>93</v>
       </c>
-      <c r="AP26">
-        <v>0.2</v>
-      </c>
-      <c r="AQ26">
-        <v>93</v>
-      </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:41">
       <c r="A27" s="1">
         <v>92</v>
       </c>
@@ -3976,11 +3814,8 @@
       <c r="AO27">
         <v>0</v>
       </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:41">
       <c r="A28" s="1">
         <v>93</v>
       </c>
@@ -4039,79 +3874,73 @@
         <v>9</v>
       </c>
       <c r="T28">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="U28">
         <v>9</v>
       </c>
       <c r="V28">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="W28">
         <v>9</v>
       </c>
       <c r="X28">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="Y28">
         <v>9</v>
       </c>
       <c r="Z28">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AA28">
         <v>9</v>
       </c>
       <c r="AB28">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="AC28">
         <v>9</v>
       </c>
       <c r="AD28">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AE28">
         <v>9</v>
       </c>
       <c r="AF28">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AG28">
         <v>9</v>
       </c>
       <c r="AH28">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AI28">
         <v>9</v>
       </c>
       <c r="AJ28">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="AK28">
         <v>9</v>
       </c>
       <c r="AL28">
-        <v>0.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM28">
         <v>9</v>
       </c>
       <c r="AN28">
-        <v>2001.8</v>
+        <v>0.3</v>
       </c>
       <c r="AO28">
         <v>9</v>
       </c>
-      <c r="AP28">
-        <v>0.3</v>
-      </c>
-      <c r="AQ28">
-        <v>9</v>
-      </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:41">
       <c r="A29" s="1">
         <v>99</v>
       </c>
@@ -4170,19 +3999,19 @@
         <v>2</v>
       </c>
       <c r="T29">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="U29">
         <v>2</v>
       </c>
       <c r="V29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>2</v>
       </c>
       <c r="X29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Y29">
         <v>2</v>
@@ -4194,25 +4023,25 @@
         <v>2</v>
       </c>
       <c r="AB29">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="AC29">
         <v>2</v>
       </c>
       <c r="AD29">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AE29">
         <v>2</v>
       </c>
       <c r="AF29">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AG29">
         <v>2</v>
       </c>
       <c r="AH29">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AI29">
         <v>2</v>
@@ -4224,21 +4053,15 @@
         <v>2</v>
       </c>
       <c r="AL29">
-        <v>3</v>
+        <v>12.5</v>
       </c>
       <c r="AM29">
         <v>2</v>
       </c>
       <c r="AN29">
-        <v>1998.5</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>2</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
         <v>2</v>
       </c>
     </row>
